--- a/resources/tools/wordlist_E-J/lessons/lesson-14.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-14.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,564 +436,564 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>same</t>
+          <t>(my) older brother</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>同じ|おなじ</t>
+          <t>兄|あに</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mr./Ms....(casual)</t>
+          <t>landlord; landlady</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>～君|～くん</t>
+          <t>大家さん|おおやさん</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>...like this; this kind of...</t>
+          <t>return (as a token of gratitude)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>こんな～</t>
+          <t>お返し|おかえし</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[makes a noun plural]</t>
+          <t>(your/his) wife</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>～たち</t>
+          <t>奥さん|おくさん</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>uncle; middle-aged man</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>私たち|わたしたち</t>
+          <t>おじさん</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>exactly</t>
+          <t>aunt; middle-aged woman</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ちょうど</t>
+          <t>おばさん</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>what should one do</t>
+          <t>tumbler; glass</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>どうしたらいい</t>
+          <t>グラス</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>Christmas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>よく</t>
+          <t>クリスマス</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>stuffed animal</t>
+          <t>(your/his) husband</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ぬいぐるみ</t>
+          <t>ご主人|ごしゅじん</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>necktie</t>
+          <t>plate; dish</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ネクタイ</t>
+          <t>皿|さら</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>St. Valentine's Day</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>バレンタインデー</t>
+          <t>時間|じかん</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>camcorder</t>
+          <t>ticket</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ビデオカメラ</t>
+          <t>チケット</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>married couple; husband and wife</t>
+          <t>chocolate</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>夫婦|ふうふ</t>
+          <t>チョコレート</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>White Day</t>
+          <t>sweat shirt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ホワイトデー</t>
+          <t>トレーナー</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>winter scarf</t>
+          <t>stuffed animal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>マフラー</t>
+          <t>ぬいぐるみ</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>comic book</t>
+          <t>necktie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>漫画|まんが</t>
+          <t>ネクタイ</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>multistory apartment building; condo</t>
+          <t>St. Valentine's Day</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>マンション</t>
+          <t>バレンタインデー</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mandarin orange</t>
+          <t>camcorder</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>みかん</t>
+          <t>ビデオカメラ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>everyone; all of you</t>
+          <t>married couple; husband and wife</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>皆さん|みなさん</t>
+          <t>夫婦|ふうふ</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ring</t>
+          <t>White Day</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>指輪|ゆびわ</t>
+          <t>ホワイトデー</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>winter scarf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ラジオ</t>
+          <t>マフラー</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>comic book</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>両親|りょうしん</t>
+          <t>漫画|まんが</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>résumé</t>
+          <t>multistory apartment building; condo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>履歴書|りれきしょ</t>
+          <t>マンション</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>(my) older brother</t>
+          <t>mandarin orange</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>兄|あに</t>
+          <t>みかん</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>landlord; landlady</t>
+          <t>everyone; all of you</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>大家さん|おおやさん</t>
+          <t>皆さん|みなさん</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>return (as a token of gratitude)</t>
+          <t>ring</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>お返し|おかえし</t>
+          <t>指輪|ゆびわ</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>(your/his) wife</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>奥さん|おくさん</t>
+          <t>ラジオ</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>uncle; middle-aged man</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>おじさん</t>
+          <t>両親|りょうしん</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>aunt; middle-aged woman</t>
+          <t>résumé</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>おばさん</t>
+          <t>履歴書|りれきしょ</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tumbler; glass</t>
+          <t>to want</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>グラス</t>
+          <t>欲しい|ほしい</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Christmas</t>
+          <t>stingy; cheap</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>クリスマス</t>
+          <t>けち（な）</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>(your/his) husband</t>
+          <t>to send</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ご主人|ごしゅじん</t>
+          <t>送る|おくる</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>plate; dish</t>
+          <t>to look good (on somebody)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>皿|さら</t>
+          <t>似合う|にあう</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>to give up</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>時間|じかん</t>
+          <t>あきらめる</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ticket</t>
+          <t>to give (to others)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>チケット</t>
+          <t>あげる</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>to give (me)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>チョコレート</t>
+          <t>くれる</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sweat shirt</t>
+          <t>to come into existence; to be made</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>トレーナー</t>
+          <t>できる</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>to want</t>
+          <t>to consult</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>欲しい|ほしい</t>
+          <t>相談する|そうだんする</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>stingy; cheap</t>
+          <t>to propose marriage</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>けち（な）</t>
+          <t>プロポーズする</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>to send</t>
+          <t>same</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>送る|おくる</t>
+          <t>同じ|おなじ</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>to look good (on somebody)</t>
+          <t>Mr./Ms....(casual)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>似合う|にあう</t>
+          <t>～君|～くん</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>to give up</t>
+          <t>...like this; this kind of...</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>あきらめる</t>
+          <t>こんな～</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>to give (to others)</t>
+          <t>[makes a noun plural]</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>あげる</t>
+          <t>～たち</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>to give (me)</t>
+          <t>we</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>くれる</t>
+          <t>私たち|わたしたち</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>to come into existence; to be made</t>
+          <t>exactly</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>できる</t>
+          <t>ちょうど</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>to consult</t>
+          <t>what should one do</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>相談する|そうだんする</t>
+          <t>どうしたらいい</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>to propose marriage</t>
+          <t>well</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>プロポーズする</t>
+          <t>よく</t>
         </is>
       </c>
     </row>
@@ -1004,444 +1072,444 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>he; boyfriend</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>英語|えいご</t>
+          <t>彼|かれ</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>she; girlfriend</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>英国|えいこく</t>
+          <t>彼女|かのじょ</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>English conversation</t>
+          <t>they</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>英会話|えいかいわ</t>
+          <t>彼ら|かれら</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>hero</t>
+          <t>age; era</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>英雄|えいゆう</t>
+          <t>時代|じだい</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>shop</t>
+          <t>electricity fee</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>店|みせ</t>
+          <t>電気代|でんきだい</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>store attendant</t>
+          <t>90's</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>店員|てんいん</t>
+          <t>九十年代|きゅうじゅうねんだい</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>stall</t>
+          <t>in one's teens</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>売店|ばいてん</t>
+          <t>十代|じゅうだい</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>book store</t>
+          <t>instead</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>書店|しょてん</t>
+          <t>代わりに|かわりに</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>last year</t>
+          <t>foreign students</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>去年|きょねん</t>
+          <t>留学生|りゅうがくせい</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>the past</t>
+          <t>to study abroad</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>過去|かこ</t>
+          <t>留学する|りゅうがくする</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>to leave</t>
+          <t>absence from home</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>去る|さる</t>
+          <t>留守|るす</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>to erase</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>消去する|しょうきょする</t>
+          <t>家族|かぞく</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>race</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>音楽|おんがく</t>
+          <t>民族|みんぞく</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>pronunciation</t>
+          <t>aquarium</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>発音|はつおん</t>
+          <t>水族館|すいぞくかん</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sound</t>
+          <t>member of royalty</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>音|おと</t>
+          <t>王族|おうぞく</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>real intention</t>
+          <t>father</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>本音|ほんね</t>
+          <t>父親|ちちおや</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>fun</t>
+          <t>kind</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>楽しい|たのしい</t>
+          <t>親切な|しんせつな</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>musical instrument</t>
+          <t>best friend</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>楽器|がっき</t>
+          <t>親友|しんゆう</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>easy; comfortable</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>楽な|らくな</t>
+          <t>両親|りょうしん</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>intimate</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>医者|いしゃ</t>
+          <t>親しい|したしい</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>dentist</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>歯医者|はいしゃ</t>
+          <t>母親|ははおや</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>medical science</t>
+          <t>to cut</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>医学|いがく</t>
+          <t>切る|きる</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>clinic</t>
+          <t>ticket</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>医院|いいん</t>
+          <t>切符|きっぷ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>scholar</t>
+          <t>postage stamp</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>学者|がくしゃ</t>
+          <t>切手|きって</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>reader</t>
+          <t>precious</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>読者|どくしゃ</t>
+          <t>大切な|たいせつな</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>young people</t>
+          <t>English</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>若者|わかもの</t>
+          <t>英語|えいご</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>he; boyfriend</t>
+          <t>England</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>彼|かれ</t>
+          <t>英国|えいこく</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>she; girlfriend</t>
+          <t>English conversation</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>彼女|かのじょ</t>
+          <t>英会話|えいかいわ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>hero</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>彼ら|かれら</t>
+          <t>英雄|えいゆう</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>age; era</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>時代|じだい</t>
+          <t>店|みせ</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>electricity fee</t>
+          <t>store attendant</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>電気代|でんきだい</t>
+          <t>店員|てんいん</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>90's</t>
+          <t>stall</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>九十年代|きゅうじゅうねんだい</t>
+          <t>売店|ばいてん</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>in one's teens</t>
+          <t>book store</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>十代|じゅうだい</t>
+          <t>書店|しょてん</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>instead</t>
+          <t>last year</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>代わりに|かわりに</t>
+          <t>去年|きょねん</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>foreign students</t>
+          <t>the past</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>留学生|りゅうがくせい</t>
+          <t>過去|かこ</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>to study abroad</t>
+          <t>to leave</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>留学する|りゅうがくする</t>
+          <t>去る|さる</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>absence from home</t>
+          <t>to erase</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>留守|るす</t>
+          <t>消去する|しょうきょする</t>
         </is>
       </c>
     </row>
@@ -1592,172 +1660,172 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>music</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>家族|かぞく</t>
+          <t>音楽|おんがく</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>race</t>
+          <t>pronunciation</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>民族|みんぞく</t>
+          <t>発音|はつおん</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>aquarium</t>
+          <t>sound</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>水族館|すいぞくかん</t>
+          <t>音|おと</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>member of royalty</t>
+          <t>real intention</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>王族|おうぞく</t>
+          <t>本音|ほんね</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>fun</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>父親|ちちおや</t>
+          <t>楽しい|たのしい</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>kind</t>
+          <t>musical instrument</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>親切な|しんせつな</t>
+          <t>楽器|がっき</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>best friend</t>
+          <t>easy; comfortable</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>親友|しんゆう</t>
+          <t>楽な|らくな</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>doctor</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>両親|りょうしん</t>
+          <t>医者|いしゃ</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>intimate</t>
+          <t>dentist</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>親しい|したしい</t>
+          <t>歯医者|はいしゃ</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>medical science</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>母親|ははおや</t>
+          <t>医学|いがく</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>to cut</t>
+          <t>clinic</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>切る|きる</t>
+          <t>医院|いいん</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ticket</t>
+          <t>scholar</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>切符|きっぷ</t>
+          <t>学者|がくしゃ</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>postage stamp</t>
+          <t>reader</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>切手|きって</t>
+          <t>読者|どくしゃ</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>precious</t>
+          <t>young people</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>大切な|たいせつな</t>
+          <t>若者|わかもの</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-14.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-14.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1826,6 +1826,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-14.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-14.xlsx
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>résumé</t>
+          <t>resume; résumé</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
